--- a/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
+++ b/REGULAR/CEO/MARINDUQUE, ERNESTO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="302">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3356,7 +3356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K527" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K528" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3734,12 +3734,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K527"/>
+  <dimension ref="A2:K528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A459" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A471" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="F469" sqref="F469"/>
+      <selection pane="bottomLeft" activeCell="J486" sqref="J486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,7 +3896,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.802999999999997</v>
+        <v>93.552999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3906,7 +3906,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>157.875</v>
+        <v>164.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14281,13 +14281,15 @@
         <v>44986</v>
       </c>
       <c r="B478" s="20"/>
-      <c r="C478" s="13"/>
+      <c r="C478" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D478" s="39"/>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G478" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
@@ -14299,13 +14301,15 @@
         <v>45017</v>
       </c>
       <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D479" s="39"/>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
@@ -14317,13 +14321,15 @@
         <v>45047</v>
       </c>
       <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D480" s="39"/>
       <c r="E480" s="9"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H480" s="39"/>
       <c r="I480" s="9"/>
@@ -14335,13 +14341,15 @@
         <v>45078</v>
       </c>
       <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="39"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H481" s="39"/>
       <c r="I481" s="9"/>
@@ -14353,13 +14361,15 @@
         <v>45108</v>
       </c>
       <c r="B482" s="20"/>
-      <c r="C482" s="13"/>
+      <c r="C482" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D482" s="39"/>
       <c r="E482" s="9"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G482" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
@@ -14371,13 +14381,15 @@
         <v>45139</v>
       </c>
       <c r="B483" s="20"/>
-      <c r="C483" s="13"/>
+      <c r="C483" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D483" s="39"/>
       <c r="E483" s="9"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G483" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H483" s="39"/>
       <c r="I483" s="9"/>
@@ -14389,13 +14401,15 @@
         <v>45170</v>
       </c>
       <c r="B484" s="20"/>
-      <c r="C484" s="13"/>
+      <c r="C484" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G484" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
@@ -14406,7 +14420,9 @@
       <c r="A485" s="40">
         <v>45200</v>
       </c>
-      <c r="B485" s="20"/>
+      <c r="B485" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
@@ -14415,16 +14431,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H485" s="39"/>
+      <c r="H485" s="39">
+        <v>1</v>
+      </c>
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
-      <c r="K485" s="20"/>
+      <c r="K485" s="49">
+        <v>45210</v>
+      </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B486" s="20"/>
+      <c r="A486" s="40"/>
+      <c r="B486" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
       <c r="E486" s="9"/>
@@ -14433,14 +14453,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H486" s="39"/>
+      <c r="H486" s="39">
+        <v>1</v>
+      </c>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="20"/>
+      <c r="K486" s="49">
+        <v>45222</v>
+      </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14458,7 +14482,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14476,7 +14500,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14494,7 +14518,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14512,7 +14536,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14530,7 +14554,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14548,7 +14572,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14566,7 +14590,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14584,7 +14608,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14602,7 +14626,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14620,7 +14644,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14638,7 +14662,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14656,7 +14680,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14674,7 +14698,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14692,7 +14716,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14710,7 +14734,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14728,7 +14752,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14746,7 +14770,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14764,7 +14788,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14782,7 +14806,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14800,7 +14824,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14818,7 +14842,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14836,7 +14860,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14854,7 +14878,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14872,7 +14896,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14890,7 +14914,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14908,7 +14932,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14926,7 +14950,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14944,7 +14968,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14962,7 +14986,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14980,7 +15004,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14998,7 +15022,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15016,7 +15040,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15034,7 +15058,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15052,7 +15076,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15070,7 +15094,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15088,7 +15112,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15106,7 +15130,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15124,7 +15148,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15142,7 +15166,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15160,7 +15184,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15175,6 +15199,24 @@
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
